--- a/02_report_result/result0515.xlsx
+++ b/02_report_result/result0515.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_data\50_Personal\16_WQIModel\WQi-Model\02_report_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511B3356-D94D-4582-B0ED-79DB5189F57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161457C1-D986-42F3-9F3A-EB2BBDF89C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1383608E-ADA3-46E4-B9CA-E10225C290E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>Mô hình</t>
   </si>
@@ -423,13 +423,6 @@
 R2: 0.660 ± 0.025</t>
   </si>
   <si>
-    <t xml:space="preserve">
-RMSE: 15.628 ± 0.780
-MAE: 10.692 ± 0.253
-MAPE: 7.201 ± 0.289
-R2: 0.686 ± 0.024</t>
-  </si>
-  <si>
     <t>RMSE: 16.254 ± 0.709
 MAE: 11.481 ± 0.329
 MAPE: 7.776 ± 0.381
@@ -539,6 +532,235 @@
   </si>
   <si>
     <t>Độ cứng, Độ mặn, Nhiệt độ, TDS, Loại ao, Công nghệ nuôi, pH, Tuổi tôm + kiềm dự báo (bằng RF với season, loại ao, công nghệ, giống, ngày thả, diện tích ao, tuổi tôm, Nhiệt độ, pH, Độ mặn, mực nước, độ trong làm input) </t>
+  </si>
+  <si>
+    <t>Độ trong', 'Độ cứng', 'Độ mặn', 'Nhiệt độ', 'TDS', 'Loại ao', 'Công nghệ nuôi', 'pH', 'Tuổi tôm', 'Độ kiềm'</t>
+  </si>
+  <si>
+    <t>RMSE: 14.664 ± 0.770
+MAE: 9.923 ± 0.323
+MAPE: 6.708 ± 0.370
+R2: 0.720 ± 0.025</t>
+  </si>
+  <si>
+    <t>Độ cứng', 'Độ mặn', 'Nhiệt độ', 'TDS', 'Loại ao', 'Công nghệ nuôi', 'pH', 'Tuổi tôm', 'Độ kiềm'</t>
+  </si>
+  <si>
+    <t>RMSE: 14.671 ± 0.776
+MAE: 9.921 ± 0.328
+MAPE: 6.703 ± 0.377
+R2: 0.720 ± 0.025</t>
+  </si>
+  <si>
+    <t>RMSE: 15.552 ± 0.835
+MAE: 10.751 ± 0.328
+MAPE: 7.194 ± 0.296
+R2: 0.687 ± 0.024</t>
+  </si>
+  <si>
+    <t>RMSE: 15.584 ± 0.850
+MAE: 10.779 ± 0.338
+MAPE: 7.206 ± 0.297
+R2: 0.685 ± 0.025</t>
+  </si>
+  <si>
+    <t>RMSE: 15.972 ± 0.777
+MAE: 11.202 ± 0.264
+MAPE: 7.606 ± 0.316
+R2: 0.672 ± 0.024</t>
+  </si>
+  <si>
+    <t>RMSE: 16.002 ± 0.776
+MAE: 11.204 ± 0.268
+MAPE: 7.601 ± 0.310
+R2: 0.671 ± 0.023</t>
+  </si>
+  <si>
+    <t>Nhiệt độ, độ màu, area, độ mặn, loại ao, độ cứng, TDS, pH, Tuổi tôm + kiềm dự báo (bằng RF)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Độ màu, area, độ mặn, loại ao, độ cứng, TDS, pH, Tuổi tôm  + </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>kiềm dự báo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>(bằng RF)</t>
+    </r>
+  </si>
+  <si>
+    <t>RMSE: 14.169 ± 0.889
+MAE: 9.168 ± 0.317
+MAPE: 6.158 ± 0.336
+R2: 0.740 ± 0.026</t>
+  </si>
+  <si>
+    <t>RMSE: 15.628 ± 0.780
+MAE: 10.692 ± 0.253
+MAPE: 7.201 ± 0.289
+R2: 0.686 ± 0.024</t>
+  </si>
+  <si>
+    <t>RMSE: 15.123 ± 0.901
+MAE: 10.299 ± 0.314
+MAPE: 6.858 ± 0.276
+R2: 0.703 ± 0.029</t>
+  </si>
+  <si>
+    <t>RMSE: 15.760 ± 0.810
+MAE: 10.777 ± 0.289
+MAPE: 7.240 ± 0.300
+R2: 0.682 ± 0.025</t>
+  </si>
+  <si>
+    <t>RMSE: 14.214 ± 0.883
+MAE: 9.197 ± 0.313
+MAPE: 6.178 ± 0.331
+R2: 0.738 ± 0.027</t>
+  </si>
+  <si>
+    <t>RMSE: 15.216 ± 0.902
+MAE: 10.354 ± 0.310
+MAPE: 6.892 ± 0.276
+R2: 0.699 ± 0.029</t>
+  </si>
+  <si>
+    <t>RMSE: 15.809 ± 0.804
+MAE: 10.803 ± 0.288
+MAPE: 7.253 ± 0.298
+R2: 0.680 ± 0.025</t>
+  </si>
+  <si>
+    <t>RMSE: 15.166 ± 0.814
+MAE: 10.407 ± 0.283
+MAPE: 7.007 ± 0.305
+R2: 0.706 ± 0.024</t>
+  </si>
+  <si>
+    <t>RMSE: 15.719 ± 0.814
+MAE: 11.038 ± 0.304
+MAPE: 7.495 ± 0.337
+R2: 0.684 ± 0.024</t>
+  </si>
+  <si>
+    <t>RMSE: 14.935 ± 0.890
+MAE: 10.521 ± 0.322
+MAPE: 7.097 ± 0.286
+R2: 0.711 ± 0.027</t>
+  </si>
+  <si>
+    <t>RMSE: 14.380 ± 0.918
+MAE: 9.903 ± 0.314
+MAPE: 6.609 ± 0.267
+R2: 0.732 ± 0.028</t>
+  </si>
+  <si>
+    <t>RMSE: 14.237 ± 0.848
+MAE: 9.712 ± 0.312
+MAPE: 6.600 ± 0.352
+R2: 0.737 ± 0.024</t>
+  </si>
+  <si>
+    <t>RMSE: 13.429 ± 0.861
+MAE: 8.909 ± 0.290
+MAPE: 6.000 ± 0.324
+R2: 0.766 ± 0.024</t>
+  </si>
+  <si>
+    <t>RMSE: 14.135 ± 0.839
+MAE: 9.625 ± 0.303
+MAPE: 6.539 ± 0.345
+R2: 0.741 ± 0.024</t>
+  </si>
+  <si>
+    <t>RMSE: 13.400 ± 0.851
+MAE: 8.906 ± 0.290
+MAPE: 5.996 ± 0.324
+R2: 0.767 ± 0.023</t>
+  </si>
+  <si>
+    <t>RMSE: 14.370 ± 0.905
+MAE: 9.897 ± 0.310
+MAPE: 6.606 ± 0.271
+R2: 0.732 ± 0.027</t>
+  </si>
+  <si>
+    <t>RMSE: 14.907 ± 0.899
+MAE: 10.502 ± 0.332
+MAPE: 7.076 ± 0.285
+R2: 0.712 ± 0.027</t>
+  </si>
+  <si>
+    <t>RMSE: 15.154 ± 0.807
+MAE: 10.390 ± 0.282
+MAPE: 6.992 ± 0.304
+R2: 0.706 ± 0.024</t>
+  </si>
+  <si>
+    <t>RMSE: 15.703 ± 0.823
+MAE: 11.016 ± 0.301
+MAPE: 7.477 ± 0.334
+R2: 0.685 ± 0.024</t>
+  </si>
+  <si>
+    <t>RMSE: 16.411 ± 0.649
+MAE: 11.462 ± 0.361
+MAPE: 7.771 ± 0.363
+R2: 0.652 ± 0.025</t>
+  </si>
+  <si>
+    <t>RMSE: 13.636 ± 0.850
+MAE: 9.224 ± 0.412
+MAPE: 6.326 ± 0.447
+R2: 0.749 ± 0.034</t>
+  </si>
+  <si>
+    <t>RMSE: 15.946 ± 1.145
+MAE: 10.870 ± 0.476
+MAPE: 7.301 ± 0.367
+R2: 0.668 ± 0.034</t>
+  </si>
+  <si>
+    <t>RMSE: 13.985 ± 0.840
+MAE: 9.374 ± 0.360
+MAPE: 6.383 ± 0.354
+R2: 0.743 ± 0.028</t>
+  </si>
+  <si>
+    <t>RMSE: 15.970 ± 0.918
+MAE: 10.884 ± 0.405
+MAPE: 7.335 ± 0.349
+R2: 0.670 ± 0.034</t>
+  </si>
+  <si>
+    <t>RMSE: 16.351 ± 0.717
+MAE: 11.488 ± 0.358
+MAPE: 7.783 ± 0.320
+R2: 0.653 ± 0.026</t>
   </si>
 </sst>
 </file>
@@ -567,12 +789,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -628,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -642,16 +870,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897C3526-3E7E-4025-8E25-9DCA2777EFDF}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1028,13 +1262,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="72" x14ac:dyDescent="0.3">
@@ -1044,9 +1278,15 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
@@ -1056,13 +1296,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1073,13 +1313,13 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="72" x14ac:dyDescent="0.3">
@@ -1089,9 +1329,15 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
@@ -1101,13 +1347,13 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1151,132 +1397,217 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
+      <c r="C12" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F19" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+    <row r="20" spans="2:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="2:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+      <c r="C22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="C23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
